--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.71511833333333</v>
+        <v>5.916621666666667</v>
       </c>
       <c r="H2">
-        <v>77.145355</v>
+        <v>17.749865</v>
       </c>
       <c r="I2">
-        <v>0.5736986116453374</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="J2">
-        <v>0.5736986116453373</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N2">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q2">
-        <v>445.7970771340139</v>
+        <v>50.48680879067777</v>
       </c>
       <c r="R2">
-        <v>4012.173694206125</v>
+        <v>454.3812791161</v>
       </c>
       <c r="S2">
-        <v>0.2623846105863659</v>
+        <v>0.06932423171616514</v>
       </c>
       <c r="T2">
-        <v>0.2623846105863658</v>
+        <v>0.06932423171616514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.71511833333333</v>
+        <v>5.916621666666667</v>
       </c>
       <c r="H3">
-        <v>77.145355</v>
+        <v>17.749865</v>
       </c>
       <c r="I3">
-        <v>0.5736986116453374</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="J3">
-        <v>0.5736986116453373</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q3">
-        <v>233.4343182720345</v>
+        <v>53.7093598920589</v>
       </c>
       <c r="R3">
-        <v>2100.90886444831</v>
+        <v>483.38423902853</v>
       </c>
       <c r="S3">
-        <v>0.1373933922830295</v>
+        <v>0.07374916735025455</v>
       </c>
       <c r="T3">
-        <v>0.1373933922830295</v>
+        <v>0.07374916735025454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.71511833333333</v>
+        <v>5.916621666666667</v>
       </c>
       <c r="H4">
-        <v>77.145355</v>
+        <v>17.749865</v>
       </c>
       <c r="I4">
-        <v>0.5736986116453374</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="J4">
-        <v>0.5736986116453373</v>
+        <v>0.2364294176430088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q4">
-        <v>295.4948419894566</v>
+        <v>67.98845573410333</v>
       </c>
       <c r="R4">
-        <v>2659.45357790511</v>
+        <v>611.89610160693</v>
       </c>
       <c r="S4">
-        <v>0.173920608775942</v>
+        <v>0.09335601857658909</v>
       </c>
       <c r="T4">
-        <v>0.173920608775942</v>
+        <v>0.09335601857658909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.915995333333333</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H5">
         <v>29.747986</v>
       </c>
       <c r="I5">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="J5">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N5">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q5">
-        <v>171.9036124653722</v>
+        <v>84.61365092578222</v>
       </c>
       <c r="R5">
-        <v>1547.13251218835</v>
+        <v>761.5228583320401</v>
       </c>
       <c r="S5">
-        <v>0.101178012886695</v>
+        <v>0.1161843357430176</v>
       </c>
       <c r="T5">
-        <v>0.101178012886695</v>
+        <v>0.1161843357430176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.915995333333333</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H6">
         <v>29.747986</v>
       </c>
       <c r="I6">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="J6">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q6">
-        <v>90.01450355469912</v>
+        <v>90.01450355469913</v>
       </c>
       <c r="R6">
-        <v>810.1305319922919</v>
+        <v>810.1305319922922</v>
       </c>
       <c r="S6">
-        <v>0.05298020483706467</v>
+        <v>0.1236003314868609</v>
       </c>
       <c r="T6">
-        <v>0.05298020483706466</v>
+        <v>0.1236003314868609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.915995333333333</v>
+        <v>9.915995333333335</v>
       </c>
       <c r="H7">
         <v>29.747986</v>
       </c>
       <c r="I7">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="J7">
-        <v>0.2212236662524261</v>
+        <v>0.3962452112189236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q7">
-        <v>113.9456344788946</v>
+        <v>113.9456344788947</v>
       </c>
       <c r="R7">
         <v>1025.510710310052</v>
       </c>
       <c r="S7">
-        <v>0.06706544852866646</v>
+        <v>0.1564605439890451</v>
       </c>
       <c r="T7">
-        <v>0.06706544852866643</v>
+        <v>0.1564605439890452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>27.576838</v>
       </c>
       <c r="I8">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380675</v>
       </c>
       <c r="J8">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N8">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q8">
-        <v>159.3572779203389</v>
+        <v>78.43814852436888</v>
       </c>
       <c r="R8">
-        <v>1434.21550128305</v>
+        <v>705.94333671932</v>
       </c>
       <c r="S8">
-        <v>0.093793565404337</v>
+        <v>0.1077046562050555</v>
       </c>
       <c r="T8">
-        <v>0.09379356540433699</v>
+        <v>0.1077046562050556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>27.576838</v>
       </c>
       <c r="I9">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380675</v>
       </c>
       <c r="J9">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q9">
         <v>83.44482151424846</v>
       </c>
       <c r="R9">
-        <v>751.003393628236</v>
+        <v>751.0033936282362</v>
       </c>
       <c r="S9">
-        <v>0.0491134601851214</v>
+        <v>0.114579397682904</v>
       </c>
       <c r="T9">
-        <v>0.04911346018512139</v>
+        <v>0.114579397682904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>27.576838</v>
       </c>
       <c r="I10">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380675</v>
       </c>
       <c r="J10">
-        <v>0.2050777221022365</v>
+        <v>0.3673253711380676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q10">
         <v>105.6293458935907</v>
       </c>
       <c r="R10">
-        <v>950.6641130423159</v>
+        <v>950.664113042316</v>
       </c>
       <c r="S10">
-        <v>0.06217069651277814</v>
+        <v>0.145041317250108</v>
       </c>
       <c r="T10">
-        <v>0.06217069651277813</v>
+        <v>0.145041317250108</v>
       </c>
     </row>
   </sheetData>
